--- a/doc/화면목록정의.xlsx
+++ b/doc/화면목록정의.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choi/Desktop/SYSTEM/stumo_web/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22189AFE-F10E-AB40-AB56-F3AF0AF357D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EB654F-C10D-6745-9F7B-523A9E2FB566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-59240" yWindow="6360" windowWidth="28300" windowHeight="17440" xr2:uid="{20D27F64-B0B6-8641-B5DB-216064D0135A}"/>
+    <workbookView xWindow="-42380" yWindow="6700" windowWidth="28300" windowHeight="17440" xr2:uid="{20D27F64-B0B6-8641-B5DB-216064D0135A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>화면목록</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -82,6 +82,22 @@
   </si>
   <si>
     <t>MyView.vue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 지원한 글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성한 모집 글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시저장기능?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -480,19 +496,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88968264-9D12-3544-8E70-AB8B75B77C26}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -508,7 +524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -516,7 +532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -524,7 +540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -532,12 +548,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
